--- a/biology/Zoologie/Austrolittorina/Austrolittorina.xlsx
+++ b/biology/Zoologie/Austrolittorina/Austrolittorina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrolittorina est un genre de mollusques gastéropodes de la famille des Littorinidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Austrolittorina a été créé en 1970 par le malacologiste américain Joseph Rosewater (d) (1928-1985) avec pour espèce type Austrolittorina unifasciata[2] et initialement décrit comme sous-genre de Littorina sous le taxon Littorina (Austrolittorina)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Austrolittorina a été créé en 1970 par le malacologiste américain Joseph Rosewater (d) (1928-1985) avec pour espèce type Austrolittorina unifasciata et initialement décrit comme sous-genre de Littorina sous le taxon Littorina (Austrolittorina).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (11 septembre 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (11 septembre 2021) :
 Austrolittorina antipodum (Philippi, 1847)
 Austrolittorina araucana (d'Orbigny, 1840)
 Austrolittorina cincta (Quoy &amp; Gaimard, 1833)
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Joseph Rosewater, « The family Littorinidae in the Indo-Pacific. Part I. The subfamily Littorininae », Indo-Pacific mollusca, Inconnu, vol. 2, no 11,‎ 30 novembre 1970, p. 417-506 (ISSN 0073-7240, OCLC 1321353, lire en ligne)</t>
         </is>
